--- a/excelEN.xlsx
+++ b/excelEN.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t xml:space="preserve">Date : </t>
   </si>
@@ -350,6 +350,25 @@
   <si>
     <t>,EUR / hour for normal workhours + 50% extra charge / hour for overtime and working on Saturdays
 + 100% extra charge / hour for working at nights, on Sundays and on national holidays</t>
+  </si>
+  <si>
+    <t>AS004</t>
+  </si>
+  <si>
+    <t>Yeong Hwa Metal Co., Ltd.</t>
+  </si>
+  <si>
+    <t>Yeong Hwa Metal Co., Ltd.
+57, Namui-ro, Jinhae-gu, Changwong-si</t>
+  </si>
+  <si>
+    <t>TURBO-KAT</t>
+  </si>
+  <si>
+    <t>25196720</t>
+  </si>
+  <si>
+    <t>Grund nok</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1766,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>0</v>
@@ -1767,7 +1786,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -1807,7 +1826,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="41"/>
@@ -1828,7 +1847,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="41"/>
@@ -1838,7 +1857,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="41"/>
@@ -1918,7 +1937,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="41"/>
